--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A833FB88-9641-704F-A4E7-219222228F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B91E2-9A0C-F544-952D-D6F044CF8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1395,7 +1395,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>327</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1778,6 +1778,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1824,6 +1830,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1870,6 +1882,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -4039,7 +4057,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4146,7 +4164,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4173,7 +4191,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4209,7 +4227,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4323,7 +4341,7 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="D11" s="77" t="e">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
@@ -4374,7 +4392,7 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="D12" s="77" t="e">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
@@ -4445,7 +4463,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4526,9 +4544,9 @@
       <c r="B16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="70">
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D16" s="70" t="str">
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
@@ -4645,7 +4663,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4745,7 +4763,9 @@
       <c r="B24" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="78">
+        <v>43</v>
+      </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
@@ -4766,9 +4786,9 @@
       <c r="B25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="75" t="str">
+      <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B91E2-9A0C-F544-952D-D6F044CF8711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D5D3D-8352-F34E-AE5F-FC949FCEB619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Sprint Burn Down Templates</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Webravo Excalibur Burn Chart UGE 2</t>
+  </si>
+  <si>
+    <t>progres</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1395,7 +1398,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>485</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1488,7 +1491,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1792,6 +1795,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4057,7 +4063,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4164,7 +4170,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4191,7 +4197,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4288,7 +4294,7 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D10" s="77" t="e">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
@@ -4341,7 +4347,7 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D11" s="77" t="e">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
@@ -4392,7 +4398,7 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="D12" s="77" t="e">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
@@ -4434,7 +4440,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4447,7 +4453,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="89">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
@@ -4463,7 +4469,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4474,7 +4480,7 @@
       </c>
       <c r="C14" s="87">
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="D14" s="87" t="e">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
@@ -4597,7 +4603,9 @@
       <c r="B17" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="78">
+        <v>12</v>
+      </c>
       <c r="D17" s="78"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -4632,9 +4640,9 @@
       <c r="L18" s="79"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="112" t="e">
+      <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4663,7 +4671,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4694,8 +4702,12 @@
       <c r="A21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="78"/>
+      <c r="B21" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="78">
+        <v>3</v>
+      </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
@@ -4751,9 +4763,9 @@
       <c r="L23" s="79"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="100" t="e">
+      <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>#N/A</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4764,7 +4776,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D5D3D-8352-F34E-AE5F-FC949FCEB619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93646659-13AD-1343-BB38-8075832249DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,14 +1171,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -1205,6 +1197,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1306,6 +1306,15 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1316,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>139.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>418.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1388,6 +1397,15 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1398,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>486</c:v>
+                  <c:v>123.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>370.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1481,6 +1499,15 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1494,7 +1521,7 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1782,9 +1809,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1797,6 +1827,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,9 +1870,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1889,9 +1925,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4062,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4170,7 +4209,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4197,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4233,7 +4272,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4272,9 +4311,15 @@
       <c r="C9" s="64">
         <v>1</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="D9" s="64">
+        <v>2</v>
+      </c>
+      <c r="E9" s="64">
+        <v>3</v>
+      </c>
+      <c r="F9" s="64">
+        <v>4</v>
+      </c>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
@@ -4294,19 +4339,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>125</v>
-      </c>
-      <c r="D10" s="77" t="e">
+        <v>139.5</v>
+      </c>
+      <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="77" t="e">
+        <v>279</v>
+      </c>
+      <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="77" t="e">
+        <v>418.5</v>
+      </c>
+      <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>558</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4347,19 +4392,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>486</v>
-      </c>
-      <c r="D11" s="77" t="e">
+        <v>123.5</v>
+      </c>
+      <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="77" t="e">
+        <v>247</v>
+      </c>
+      <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="77" t="e">
+        <v>370.5</v>
+      </c>
+      <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>494</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4398,19 +4443,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>361</v>
-      </c>
-      <c r="D12" s="77" t="e">
+        <v>369</v>
+      </c>
+      <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="77" t="e">
+        <v>215</v>
+      </c>
+      <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="77" t="e">
+        <v>215</v>
+      </c>
+      <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>#N/A</v>
+        <v>215</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4440,7 +4485,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4455,7 +4500,9 @@
       <c r="C13" s="89">
         <v>125</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="89">
+        <v>154</v>
+      </c>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
@@ -4469,7 +4516,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4482,9 +4529,9 @@
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
         <v>125</v>
       </c>
-      <c r="D14" s="87" t="e">
+      <c r="D14" s="87">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
-        <v>#N/A</v>
+        <v>279</v>
       </c>
       <c r="E14" s="87" t="e">
         <f t="shared" si="10"/>
@@ -4554,9 +4601,9 @@
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
         <v>1</v>
       </c>
-      <c r="D16" s="70" t="str">
+      <c r="D16" s="70">
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E16" s="70" t="str">
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
@@ -4606,7 +4653,9 @@
       <c r="C17" s="78">
         <v>12</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="78">
+        <v>29</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -4642,7 +4691,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4671,7 +4720,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4708,7 +4757,9 @@
       <c r="C21" s="78">
         <v>3</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="78">
+        <v>3</v>
+      </c>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
@@ -4765,7 +4816,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4778,7 +4829,9 @@
       <c r="C24" s="78">
         <v>33</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="78">
+        <v>17</v>
+      </c>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -4800,11 +4853,11 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="D25" s="75">
+        <f t="shared" si="14"/>
         <v>0</v>
-      </c>
-      <c r="D25" s="75" t="str">
-        <f t="shared" si="14"/>
-        <v/>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="14"/>
@@ -4973,12 +5026,12 @@
     <mergeCell ref="O7:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:L9 B16:L16">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:L12">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6145,12 +6198,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:L8 B12:L12 B17:L17">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:L9 B13:L14 B26:L26">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93646659-13AD-1343-BB38-8075832249DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29FA1B-A1C0-6944-9E06-7F1C48F366C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>123.5</c:v>
+                  <c:v>124.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247</c:v>
+                  <c:v>248.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>370.5</c:v>
+                  <c:v>372.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>494</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4101,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4184,7 +4184,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>25</v>
@@ -4209,7 +4209,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4236,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="Q8" s="86">
         <f>C4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
@@ -4392,19 +4392,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>123.5</v>
+        <v>124.25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>247</v>
+        <v>248.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>370.5</v>
+        <v>372.75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4443,19 +4443,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4516,7 +4516,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4853,11 +4853,11 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29FA1B-A1C0-6944-9E06-7F1C48F366C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B939152-5B44-6E47-A02C-3F05916CDD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>139.5</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>279</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>418.5</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>558</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>124.25</c:v>
+                  <c:v>132.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248.5</c:v>
+                  <c:v>264.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>372.75</c:v>
+                  <c:v>396.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>497</c:v>
+                  <c:v>529</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1524,7 +1524,7 @@
                   <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1809,12 +1809,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1830,6 +1833,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,12 +1876,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1925,12 +1934,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4101,8 +4113,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4209,7 +4221,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4236,7 +4248,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4272,7 +4284,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4339,19 +4351,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>139.5</v>
+        <v>125</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>418.5</v>
+        <v>375</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4392,19 +4404,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>124.25</v>
+        <v>132.25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>248.5</v>
+        <v>264.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>372.75</v>
+        <v>396.75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4443,19 +4455,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4485,7 +4497,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4503,7 +4515,9 @@
       <c r="D13" s="89">
         <v>154</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="89">
+        <v>96</v>
+      </c>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
@@ -4516,7 +4530,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4533,9 +4547,9 @@
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
         <v>279</v>
       </c>
-      <c r="E14" s="87" t="e">
+      <c r="E14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>375</v>
       </c>
       <c r="F14" s="87" t="e">
         <f t="shared" si="10"/>
@@ -4605,9 +4619,9 @@
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
         <v>2</v>
       </c>
-      <c r="E16" s="70" t="str">
+      <c r="E16" s="70">
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F16" s="70" t="str">
         <f t="shared" si="12"/>
@@ -4656,7 +4670,9 @@
       <c r="D17" s="78">
         <v>29</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="78">
+        <v>39</v>
+      </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -4691,7 +4707,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4720,7 +4736,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4760,7 +4776,9 @@
       <c r="D21" s="78">
         <v>3</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="78">
+        <v>5</v>
+      </c>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
@@ -4816,7 +4834,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>6.8965517241379309E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4827,12 +4845,14 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D24" s="78">
-        <v>17</v>
-      </c>
-      <c r="E24" s="78"/>
+        <v>21</v>
+      </c>
+      <c r="E24" s="78">
+        <v>9</v>
+      </c>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -4853,15 +4873,15 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="E25" s="75" t="str">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-3</v>
       </c>
       <c r="F25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B939152-5B44-6E47-A02C-3F05916CDD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495779EC-9872-A24C-95BE-F921E36C41B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>132.25</c:v>
+                  <c:v>131.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264.5</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>396.75</c:v>
+                  <c:v>394.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>529</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4113,8 +4113,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4221,7 +4221,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4248,7 +4248,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4404,19 +4404,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>132.25</v>
+        <v>131.5</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>264.5</v>
+        <v>263</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>396.75</v>
+        <v>394.5</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4455,19 +4455,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4530,7 +4530,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4736,7 +4736,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4873,15 +4873,15 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E25" s="75">
         <f t="shared" si="14"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495779EC-9872-A24C-95BE-F921E36C41B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3821FCD2-A488-CD4C-B50D-71A017F7EA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>375</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1527,7 +1527,7 @@
                   <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1809,7 +1809,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1818,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,6 +1839,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,7 +1882,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1885,6 +1891,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1934,7 +1943,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1943,6 +1952,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4114,7 +4126,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4284,7 +4296,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4351,19 +4363,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4467,7 +4479,7 @@
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4497,7 +4509,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4518,7 +4530,9 @@
       <c r="E13" s="89">
         <v>96</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <v>53</v>
+      </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -4551,9 +4565,9 @@
         <f t="shared" si="10"/>
         <v>375</v>
       </c>
-      <c r="F14" s="87" t="e">
+      <c r="F14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>428</v>
       </c>
       <c r="G14" s="87" t="e">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
@@ -4623,9 +4637,9 @@
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
         <v>3</v>
       </c>
-      <c r="F16" s="70" t="str">
+      <c r="F16" s="70">
         <f t="shared" si="12"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G16" s="70" t="str">
         <f t="shared" ref="G16:L16" si="13">IF(SUM(G17:G24)&gt;0,G9,"")</f>
@@ -4673,7 +4687,9 @@
       <c r="E17" s="78">
         <v>39</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="78">
+        <v>48</v>
+      </c>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
@@ -4707,7 +4723,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4779,7 +4795,9 @@
       <c r="E21" s="78">
         <v>5</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="78">
+        <v>5</v>
+      </c>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
@@ -4834,7 +4852,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4853,7 +4871,9 @@
       <c r="E24" s="78">
         <v>9</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="78">
+        <v>7</v>
+      </c>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
@@ -4883,9 +4903,9 @@
         <f t="shared" si="14"/>
         <v>-7</v>
       </c>
-      <c r="F25" s="75" t="str">
+      <c r="F25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="14"/>
